--- a/Data/Classroom_User_study/Interpret without examples.xlsx
+++ b/Data/Classroom_User_study/Interpret without examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LinMingHuang\Desktop\实验二\实验-final\Classroom_User_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F231A3E-791F-492E-818B-ED7357AA08D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF1E3D9-ADDD-4A4F-86AA-F61372A6D3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>attempt_id</t>
   </si>
@@ -134,21 +134,6 @@
   </si>
   <si>
     <t>Strings with odd number of characters starting with 'a' or even number of characters starting with 'b'.</t>
-  </si>
-  <si>
-    <t>A string that can only have 1 "a" after "b".</t>
-  </si>
-  <si>
-    <t>The first two characters must be either a or b, the third character must be a, and the following characters can be any number of a or b to form an ab sequence.</t>
-  </si>
-  <si>
-    <t>Pairs of a (can be zero pairs) with any number of b's in between form an ab string.</t>
-  </si>
-  <si>
-    <t>Starting with any number of b's, followed by multiple blocks, each containing two a's followed by at least one b, creating an ab string.</t>
-  </si>
-  <si>
-    <t>An ab string that consists entirely of b (which can be empty), starts with b, has multiple a's followed by at least one b in the middle, and ends with one a followed by any number of b's.</t>
   </si>
   <si>
     <t>Strings ending with "ab"</t>
@@ -298,19 +283,7 @@
     <t>There may be a substring "bb" or not. If there is "bb", the part before "bb" consists of "a" or "ba", and the part after "bb" consists of "a" or "ab". If there is no "bb", the string is directly connected before and after, and the conditions are the same as when there is "bb".</t>
   </si>
   <si>
-    <t>There can be a bb substring or not. If there is a bb substring, the part before bb is composed of a or ba, and the part after bb is composed of a or ab. If there is no bb substring, the parts are directly connected, with the same conditions for the parts before and after as when there is a bb substring.</t>
-  </si>
-  <si>
-    <t>There may be a substring "bb" or not. If there is "bb", the part before "bb" is composed of "a" or "ba", and the part after "bb" is composed of "a" or "ab". If there is no "bb", the front and back are directly connected, with the same conditions as when there is "bb" in the front and back.</t>
-  </si>
-  <si>
     <t>There is either 0 or 1 'a' before each 'b', and there cannot be consecutive 'b' unless there is an 'a' in between.</t>
-  </si>
-  <si>
-    <t>The first half consists of a or ba, the second half consists of b or ab, and the final string can be ended with a.</t>
-  </si>
-  <si>
-    <t>A string is composed of any number of b's, can contain up to 2 a's, and each a can be surrounded by any number of b's.</t>
   </si>
   <si>
     <t>Start with B and end with A</t>
@@ -762,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -779,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1280,349 +1253,349 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>325</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D59">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>335</v>
@@ -1630,13 +1603,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <v>354</v>
@@ -1644,13 +1617,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>354</v>
@@ -1658,83 +1631,83 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D67">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>343</v>
@@ -1742,125 +1715,125 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>353</v>
@@ -1868,228 +1841,231 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
       <c r="D83">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>353</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>353</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>353</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>336</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>336</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D93">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>419</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
@@ -2098,12 +2074,12 @@
         <v>7</v>
       </c>
       <c r="D95">
-        <v>419</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
@@ -2112,12 +2088,12 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>419</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -2126,12 +2102,12 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <v>419</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
@@ -2140,202 +2116,76 @@
         <v>10</v>
       </c>
       <c r="D98">
-        <v>419</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D100">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
       </c>
       <c r="C102">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>113</v>
-      </c>
-      <c r="B104" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104">
-        <v>7</v>
-      </c>
-      <c r="D104">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>114</v>
-      </c>
-      <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>115</v>
-      </c>
-      <c r="B106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106">
-        <v>9</v>
-      </c>
-      <c r="D106">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>116</v>
-      </c>
-      <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107">
-        <v>10</v>
-      </c>
-      <c r="D107">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>117</v>
-      </c>
-      <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108">
-        <v>6</v>
-      </c>
-      <c r="D108">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>118</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
-      </c>
-      <c r="D109">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>119</v>
-      </c>
-      <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
-      </c>
-      <c r="D110">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>120</v>
-      </c>
-      <c r="B111" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111">
-        <v>9</v>
-      </c>
-      <c r="D111">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>121</v>
-      </c>
-      <c r="B112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112">
-        <v>10</v>
-      </c>
-      <c r="D112">
         <v>327</v>
       </c>
     </row>
